--- a/project/TBM/data/PCBA衍生BOM制作需求导入模板.xlsx
+++ b/project/TBM/data/PCBA衍生BOM制作需求导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="7" r:id="rId1"/>
@@ -1248,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1287,7 +1287,7 @@
     <row r="2" ht="20" customHeight="1" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
-        <v>12198883</v>
+        <v>12398884</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1384,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1429,7 +1429,7 @@
     <row r="2" ht="20" customHeight="1" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
-        <v>12198883</v>
+        <v>12398884</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
